--- a/Git_repo_info.xlsx
+++ b/Git_repo_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Training\IIHT\Wipro_July_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Training\IIHT\Wipro_July_2025\wiprojulytrain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E141094-0C9D-4650-94F9-F0839A82E3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D4D45A-548B-442C-9406-AFAA8DF2A304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{D5FD5A7F-D155-4FC6-8FC7-23616F485FD6}"/>
   </bookViews>
@@ -676,7 +676,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -881,6 +881,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -901,20 +915,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1256,7 +1256,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1268,20 +1268,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
     </row>
     <row r="3" spans="1:3" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="2" t="s">
         <v>155</v>
       </c>
@@ -1302,7 +1302,7 @@
       <c r="B5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="20" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1467,7 +1467,7 @@
       <c r="B23" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="19" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       <c r="B29" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="19" t="s">
         <v>160</v>
       </c>
     </row>
@@ -1608,7 +1608,7 @@
       <c r="B38" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="19" t="s">
         <v>158</v>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       <c r="B52" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="29" t="s">
+      <c r="C52" s="19" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B72" s="28" t="s">
+      <c r="B72" s="18" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B73" s="28" t="s">
+      <c r="B73" s="18" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1970,10 +1970,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="8"/>
@@ -1993,43 +1993,43 @@
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="23"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:10" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="30"/>
     </row>
     <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
@@ -4380,10 +4380,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="8"/>
@@ -4403,43 +4403,43 @@
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="23"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:10" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="30"/>
     </row>
     <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
@@ -6790,10 +6790,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="8"/>
@@ -6813,43 +6813,43 @@
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="23"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:10" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="30"/>
     </row>
     <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
@@ -9167,7 +9167,7 @@
         <f t="shared" si="3"/>
         <v>69</v>
       </c>
-      <c r="B72" s="28" t="s">
+      <c r="B72" s="18" t="s">
         <v>152</v>
       </c>
       <c r="C72" s="5"/>
@@ -9199,7 +9199,7 @@
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="B73" s="28" t="s">
+      <c r="B73" s="18" t="s">
         <v>153</v>
       </c>
       <c r="C73" s="5"/>

--- a/Git_repo_info.xlsx
+++ b/Git_repo_info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Training\IIHT\Wipro_July_2025\wiprojulytrain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOHAM TANAVADE\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D4D45A-548B-442C-9406-AFAA8DF2A304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DB8D63-8413-4B65-B32A-957B7ACD3D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{D5FD5A7F-D155-4FC6-8FC7-23616F485FD6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D5FD5A7F-D155-4FC6-8FC7-23616F485FD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Git Repo" sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="162">
   <si>
     <t>S No</t>
   </si>
@@ -608,6 +608,9 @@
   </si>
   <si>
     <t>https://github.com/Ashok-web784/wiproconfig</t>
+  </si>
+  <si>
+    <t>https://github.com/soham0608/WiproTraining_Assignments</t>
   </si>
 </sst>
 </file>
@@ -1255,8 +1258,8 @@
   <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <pane ySplit="3" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1776,6 +1779,9 @@
       <c r="B56" s="12" t="s">
         <v>65</v>
       </c>
+      <c r="C56" s="19" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="57" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
@@ -1941,9 +1947,10 @@
     <hyperlink ref="C38" r:id="rId3" tooltip="https://github.com/deekshithamunigala/java_full_stack" xr:uid="{8DBE9A31-F653-4A6B-9B68-25403E3F0D9F}"/>
     <hyperlink ref="C52" r:id="rId4" xr:uid="{76AEAEAC-0FA7-4ABC-97D4-A71438FA545E}"/>
     <hyperlink ref="C29" r:id="rId5" tooltip="https://github.com/ashok-web784/wiproconfig" xr:uid="{8BB3790F-EED2-46B3-B368-01F32BD64347}"/>
+    <hyperlink ref="C56" r:id="rId6" xr:uid="{0710DEAF-C701-42D8-992E-5C84EE3C50AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/Git_repo_info.xlsx
+++ b/Git_repo_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Training\IIHT\Wipro_July_2025\wiprojulytrain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D4D45A-548B-442C-9406-AFAA8DF2A304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2347FC-11AD-434F-BA30-292C99EDDD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{D5FD5A7F-D155-4FC6-8FC7-23616F485FD6}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2_08_2025'!$A$3:$J$71</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'26_07_2025'!$A$3:$J$71</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'9_08_2025'!$A$3:$J$71</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Git Repo'!$A$3:$B$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Git Repo'!$A$3:$C$73</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="217">
   <si>
     <t>S No</t>
   </si>
@@ -593,21 +593,188 @@
     <t>Git repo</t>
   </si>
   <si>
-    <t>https://github.com/badari03/wiprodailyexercises.git</t>
+    <t>https://github.com/DeekshithaMunigala/Java_full_stack</t>
+  </si>
+  <si>
+    <t>https://github.com/Ashok-web784/wiproconfig</t>
+  </si>
+  <si>
+    <t>https://github.com/Sasanalavyshnavi/wiprotrainjul2025</t>
+  </si>
+  <si>
+    <t>https://github.com/rushitambe07/WiproAssignment</t>
+  </si>
+  <si>
+    <t>https://github.com/Mounikaummadi/Daywiseexercises</t>
+  </si>
+  <si>
+    <t>https://github.com/sadasiva098/wiprotrainingjul2025</t>
+  </si>
+  <si>
+    <t>https://github.com/Rahima36/Wipro-_training_2025</t>
+  </si>
+  <si>
+    <t>https://github.com/143durga/Wipro21-07</t>
+  </si>
+  <si>
+    <t>https://github.com/Jayasrikanna147/jaya_Sri_Kanna-Wiprotraining_Exercises</t>
+  </si>
+  <si>
+    <t>https://github.com/PoojithaAthota/wiprotrainexcercises</t>
+  </si>
+  <si>
+    <t>https://github.com/pravallikar161/Wipro-daywise-practice</t>
+  </si>
+  <si>
+    <t>https://github.com/Bhjteju/wiprojune20251</t>
+  </si>
+  <si>
+    <t>https://github.com/Pavank295/DayWiseExercises</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-71/Wiproexcerciserepo</t>
+  </si>
+  <si>
+    <t>https://github.com/varshithabuna2001/wipro_batch1</t>
+  </si>
+  <si>
+    <t>https://github.com/Ramesh-png/rameshwiproexercises</t>
+  </si>
+  <si>
+    <t>https://github.com/Jeevansai-0054/Wipro_Training_Daywise</t>
+  </si>
+  <si>
+    <t>https://github.com/Raghavendrakavuru/wipro_daywise_excercises</t>
+  </si>
+  <si>
+    <t>https://github.com/YASHPATNI2002/Wipro_25</t>
+  </si>
+  <si>
+    <t>https://github.com/Kusumasai7/Wipropreskilling</t>
+  </si>
+  <si>
+    <t>https://github.com/Chandu7702984063/wipro-daily-tasks</t>
+  </si>
+  <si>
+    <t>https://github.com/vyshnaviwipro/wiprodailyexercises</t>
+  </si>
+  <si>
+    <t>https://github.com/Vaishnav5657/WiproTraining</t>
+  </si>
+  <si>
+    <t>https://github.com/Unnati-kshirsagar/Wiprotraining</t>
+  </si>
+  <si>
+    <t>https://github.com/harshav2106/DayWiseProjects</t>
+  </si>
+  <si>
+    <t>https://github.com/edigamurali/Wipro-Exercises</t>
+  </si>
+  <si>
+    <t>https://github.com/soujanya-08/JavaFS</t>
+  </si>
+  <si>
+    <t>https://github.com/rohitkakade/WiproTrainingDemo</t>
+  </si>
+  <si>
+    <t>https://github.com/janhveemahajana/java_fullstack_wipro</t>
+  </si>
+  <si>
+    <t>https://github.com/pavanreddy-33/wiprodaily</t>
+  </si>
+  <si>
+    <t>https://github.com/hrutikas2002/Wipro_Preskilling_Training_Exercises</t>
+  </si>
+  <si>
+    <t>https://github.com/ParthJ-21/Wipro-PJ</t>
+  </si>
+  <si>
+    <t>https://github.com/bitraramakrishna/FULL_STACK_JAVA_ANGULAR</t>
+  </si>
+  <si>
+    <t>https://github.com/premkumar085/wiprodailyexercise</t>
+  </si>
+  <si>
+    <t>https://github.com/RDP1502/wiprocodes</t>
+  </si>
+  <si>
+    <t>https://github.com/Tusharvaral/wipro2025</t>
+  </si>
+  <si>
+    <t>https://github.com/Memanasa23/Wipro_Java_Practice</t>
+  </si>
+  <si>
+    <t>https://github.com/avik200225/Wipro_Daywise_Excercises</t>
+  </si>
+  <si>
+    <t>https://github.com/Abdul-Rahman159/Wipro-Practice</t>
+  </si>
+  <si>
+    <t>https://github.com/sangrambhise/JavaFullStack</t>
+  </si>
+  <si>
+    <t>https://github.com/Jhanseeram/Wipro_JAVA_FSA</t>
+  </si>
+  <si>
+    <t>https://github.com/SumaiyaAzeem0905/wipro_daywise_exercises</t>
+  </si>
+  <si>
+    <t>https://github.com/Srikanth-6979/wiprotrainining</t>
+  </si>
+  <si>
+    <t>https://github.com/Tanuja-Krotha/wipro_daywise_projects</t>
+  </si>
+  <si>
+    <t>https://github.com/praveenande123/WiprodailyExcercises</t>
+  </si>
+  <si>
+    <t>https://github.com/SupriyaShintre/WiproDayWiseExersite</t>
+  </si>
+  <si>
+    <t>https://github.com/soham0608/WiproTraining_Assignments</t>
+  </si>
+  <si>
+    <t>https://github.com/Dandu-Narendra7/wiprotrain2025</t>
+  </si>
+  <si>
+    <t>https://github.com/BJayasreeLakshmi/WiproDailyPractice2025</t>
+  </si>
+  <si>
+    <t>https://github.com/VidyaSree04/wiprotrainjul2025</t>
+  </si>
+  <si>
+    <t>https://github.com/Shubham-Bhoite/Wipro-Java_Training</t>
+  </si>
+  <si>
+    <t>https://github.com/akanksha28013/wipro2025</t>
+  </si>
+  <si>
+    <t>https://github.com/Vedantimane/wipro_training</t>
+  </si>
+  <si>
+    <t>https://github.com/vvarsha23/V-Varsha-Wipro_Exercises</t>
+  </si>
+  <si>
+    <t>https://github.com/vaishnavi-datkar/wiproserverconfig</t>
+  </si>
+  <si>
+    <t>https://github.com/shaiksaheb457/wipropst</t>
+  </si>
+  <si>
+    <t>https://github.com/VanukuriChaitanya29/wiprojuly25</t>
+  </si>
+  <si>
+    <t>https://github.com/Nandini2672/wiprotrainingDaywise</t>
+  </si>
+  <si>
+    <t>https://github.com/Naveenkumar423/wiprotrainjuly2025</t>
+  </si>
+  <si>
+    <t>https://github.com/pavan2528/wipropre_work</t>
   </si>
   <si>
     <t xml:space="preserve">https://github.com/vvarsha23/V-Varsha-Wipro_Exercises
-vvarsha23/V-Varsha-Wipro_Exercises
  </t>
-  </si>
-  <si>
-    <t>https://github.com/DeekshithaMunigala/Java_full_stack</t>
-  </si>
-  <si>
-    <t>https://github.com/vaishnavi-datkar/wipro_git</t>
-  </si>
-  <si>
-    <t>https://github.com/Ashok-web784/wiproconfig</t>
   </si>
 </sst>
 </file>
@@ -1255,8 +1422,8 @@
   <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1293,8 +1460,11 @@
       <c r="B4" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>A4+1</f>
         <v>2</v>
@@ -1303,7 +1473,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>157</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -1323,6 +1493,9 @@
       <c r="B7" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
@@ -1332,6 +1505,9 @@
       <c r="B8" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
@@ -1368,6 +1544,9 @@
       <c r="B12" s="11" t="s">
         <v>21</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
@@ -1377,6 +1556,9 @@
       <c r="B13" s="11" t="s">
         <v>22</v>
       </c>
+      <c r="C13" s="2" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
@@ -1404,6 +1586,9 @@
       <c r="B16" s="15" t="s">
         <v>25</v>
       </c>
+      <c r="C16" s="2" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
@@ -1413,6 +1598,9 @@
       <c r="B17" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="C17" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
@@ -1422,6 +1610,9 @@
       <c r="B18" s="11" t="s">
         <v>27</v>
       </c>
+      <c r="C18" s="2" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
@@ -1431,6 +1622,9 @@
       <c r="B19" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="C19" s="2" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
@@ -1440,6 +1634,9 @@
       <c r="B20" s="11" t="s">
         <v>29</v>
       </c>
+      <c r="C20" s="2" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
@@ -1458,6 +1655,9 @@
       <c r="B22" s="11" t="s">
         <v>31</v>
       </c>
+      <c r="C22" s="2" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
@@ -1468,7 +1668,7 @@
         <v>32</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>156</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -1479,6 +1679,9 @@
       <c r="B24" s="11" t="s">
         <v>33</v>
       </c>
+      <c r="C24" s="2" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
@@ -1488,6 +1691,9 @@
       <c r="B25" s="11" t="s">
         <v>34</v>
       </c>
+      <c r="C25" s="2" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
@@ -1497,6 +1703,9 @@
       <c r="B26" s="11" t="s">
         <v>35</v>
       </c>
+      <c r="C26" s="2" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
@@ -1506,6 +1715,9 @@
       <c r="B27" s="11" t="s">
         <v>36</v>
       </c>
+      <c r="C27" s="2" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
@@ -1515,6 +1727,9 @@
       <c r="B28" s="11" t="s">
         <v>37</v>
       </c>
+      <c r="C28" s="2" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="29" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
@@ -1525,7 +1740,7 @@
         <v>38</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -1536,6 +1751,9 @@
       <c r="B30" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="C30" s="2" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
@@ -1545,6 +1763,9 @@
       <c r="B31" s="11" t="s">
         <v>40</v>
       </c>
+      <c r="C31" s="2" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="32" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
@@ -1554,6 +1775,9 @@
       <c r="B32" s="11" t="s">
         <v>41</v>
       </c>
+      <c r="C32" s="2" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="33" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
@@ -1563,6 +1787,9 @@
       <c r="B33" s="11" t="s">
         <v>42</v>
       </c>
+      <c r="C33" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="34" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
@@ -1572,6 +1799,9 @@
       <c r="B34" s="11" t="s">
         <v>43</v>
       </c>
+      <c r="C34" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="35" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
@@ -1581,6 +1811,9 @@
       <c r="B35" s="11" t="s">
         <v>44</v>
       </c>
+      <c r="C35" s="2" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="36" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
@@ -1590,6 +1823,9 @@
       <c r="B36" s="11" t="s">
         <v>45</v>
       </c>
+      <c r="C36" s="2" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="37" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
@@ -1599,6 +1835,9 @@
       <c r="B37" s="11" t="s">
         <v>46</v>
       </c>
+      <c r="C37" s="2" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="38" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
@@ -1609,7 +1848,7 @@
         <v>47</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -1620,6 +1859,9 @@
       <c r="B39" s="11" t="s">
         <v>48</v>
       </c>
+      <c r="C39" s="2" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="40" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
@@ -1629,6 +1871,9 @@
       <c r="B40" s="11" t="s">
         <v>49</v>
       </c>
+      <c r="C40" s="2" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="41" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
@@ -1638,6 +1883,9 @@
       <c r="B41" s="11" t="s">
         <v>50</v>
       </c>
+      <c r="C41" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="42" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
@@ -1647,6 +1895,9 @@
       <c r="B42" s="11" t="s">
         <v>51</v>
       </c>
+      <c r="C42" s="2" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="43" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
@@ -1656,6 +1907,9 @@
       <c r="B43" s="11" t="s">
         <v>52</v>
       </c>
+      <c r="C43" s="2" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="44" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
@@ -1665,6 +1919,9 @@
       <c r="B44" s="12" t="s">
         <v>53</v>
       </c>
+      <c r="C44" s="2" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="45" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
@@ -1674,6 +1931,9 @@
       <c r="B45" s="12" t="s">
         <v>54</v>
       </c>
+      <c r="C45" s="2" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="46" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
@@ -1683,6 +1943,9 @@
       <c r="B46" s="12" t="s">
         <v>55</v>
       </c>
+      <c r="C46" s="2" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="47" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
@@ -1701,6 +1964,9 @@
       <c r="B48" s="12" t="s">
         <v>57</v>
       </c>
+      <c r="C48" s="2" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="49" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
@@ -1710,6 +1976,9 @@
       <c r="B49" s="12" t="s">
         <v>58</v>
       </c>
+      <c r="C49" s="2" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="50" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
@@ -1719,6 +1988,9 @@
       <c r="B50" s="12" t="s">
         <v>59</v>
       </c>
+      <c r="C50" s="2" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="51" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
@@ -1728,6 +2000,9 @@
       <c r="B51" s="12" t="s">
         <v>60</v>
       </c>
+      <c r="C51" s="2" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="52" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
@@ -1737,8 +2012,8 @@
       <c r="B52" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="19" t="s">
-        <v>159</v>
+      <c r="C52" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -1749,6 +2024,9 @@
       <c r="B53" s="12" t="s">
         <v>62</v>
       </c>
+      <c r="C53" s="2" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="54" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
@@ -1758,6 +2036,9 @@
       <c r="B54" s="12" t="s">
         <v>63</v>
       </c>
+      <c r="C54" s="19" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="55" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
@@ -1767,6 +2048,9 @@
       <c r="B55" s="12" t="s">
         <v>64</v>
       </c>
+      <c r="C55" s="2" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="56" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
@@ -1776,6 +2060,9 @@
       <c r="B56" s="12" t="s">
         <v>65</v>
       </c>
+      <c r="C56" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="57" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
@@ -1785,6 +2072,9 @@
       <c r="B57" s="12" t="s">
         <v>66</v>
       </c>
+      <c r="C57" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="58" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
@@ -1794,6 +2084,9 @@
       <c r="B58" s="12" t="s">
         <v>67</v>
       </c>
+      <c r="C58" s="2" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="59" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
@@ -1803,6 +2096,9 @@
       <c r="B59" s="12" t="s">
         <v>68</v>
       </c>
+      <c r="C59" s="2" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="60" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
@@ -1812,6 +2108,9 @@
       <c r="B60" s="12" t="s">
         <v>69</v>
       </c>
+      <c r="C60" s="2" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="61" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
@@ -1821,6 +2120,9 @@
       <c r="B61" s="12" t="s">
         <v>70</v>
       </c>
+      <c r="C61" s="2" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="62" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
@@ -1830,6 +2132,9 @@
       <c r="B62" s="12" t="s">
         <v>71</v>
       </c>
+      <c r="C62" s="2" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="63" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
@@ -1839,6 +2144,9 @@
       <c r="B63" s="12" t="s">
         <v>72</v>
       </c>
+      <c r="C63" s="2" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
@@ -1849,7 +2157,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -1857,8 +2165,11 @@
       <c r="B65" s="12" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C65" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -1866,8 +2177,11 @@
       <c r="B66" s="12" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C66" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -1875,8 +2189,11 @@
       <c r="B67" s="12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C67" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -1884,8 +2201,11 @@
       <c r="B68" s="12" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C68" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -1893,8 +2213,11 @@
       <c r="B69" s="13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C69" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
         <f t="shared" ref="A70:A73" si="1">A69+1</f>
         <v>67</v>
@@ -1902,8 +2225,11 @@
       <c r="B70" s="13" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C70" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -1911,8 +2237,11 @@
       <c r="B71" s="13" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C71" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -1920,8 +2249,11 @@
       <c r="B72" s="18" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C72" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -1929,21 +2261,22 @@
       <c r="B73" s="18" t="s">
         <v>153</v>
       </c>
+      <c r="C73" s="2" t="s">
+        <v>170</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:C73" xr:uid="{52E67DE5-1EAA-4BED-A7EE-7607887293AA}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C23" r:id="rId1" tooltip="https://github.com/badari03/wiprodailyexercises.git" xr:uid="{FC5328C5-EFE6-4539-89A4-E9FA6EE951A3}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{C736C307-9A6B-4D70-A81A-D4FFA795892B}"/>
-    <hyperlink ref="C38" r:id="rId3" tooltip="https://github.com/deekshithamunigala/java_full_stack" xr:uid="{8DBE9A31-F653-4A6B-9B68-25403E3F0D9F}"/>
-    <hyperlink ref="C52" r:id="rId4" xr:uid="{76AEAEAC-0FA7-4ABC-97D4-A71438FA545E}"/>
-    <hyperlink ref="C29" r:id="rId5" tooltip="https://github.com/ashok-web784/wiproconfig" xr:uid="{8BB3790F-EED2-46B3-B368-01F32BD64347}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{C736C307-9A6B-4D70-A81A-D4FFA795892B}"/>
+    <hyperlink ref="C29" r:id="rId2" tooltip="https://github.com/ashok-web784/wiproconfig" xr:uid="{8BB3790F-EED2-46B3-B368-01F32BD64347}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
